--- a/src/sample/opp.xlsx
+++ b/src/sample/opp.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tkittirudeekul/IdeaProjects/AutomationApp/src/sample/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tkittirudeekul/IdeaProjects/WebsiteAutomation/src/sample/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19660" windowHeight="17460" tabRatio="500" firstSheet="11" activeTab="20"/>
+    <workbookView xWindow="4180" yWindow="540" windowWidth="19660" windowHeight="16500" tabRatio="500" firstSheet="12" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,7 @@
     <sheet name="ClearFoilWhite" sheetId="24" r:id="rId19"/>
     <sheet name="ClearFoilGold" sheetId="25" r:id="rId20"/>
     <sheet name="paper-sheep" sheetId="26" r:id="rId21"/>
+    <sheet name="opph3" sheetId="27" r:id="rId22"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1797" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1776" uniqueCount="387">
   <si>
     <t>OPP Bag 50M</t>
   </si>
@@ -1214,7 +1215,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1226,6 +1227,11 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -1249,9 +1255,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8030,7 +8037,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection sqref="A1:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -9488,7 +9495,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -9531,7 +9538,7 @@
         <v>CFG0407</v>
       </c>
       <c r="B2" t="str">
-        <f t="shared" ref="B1:B8" si="1">CONCATENATE(G2, I2)</f>
+        <f t="shared" ref="B2:B8" si="1">CONCATENATE(G2, I2)</f>
         <v>4 นิ้ว</v>
       </c>
       <c r="C2" t="str">
@@ -9730,6 +9737,353 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="151" zoomScaleNormal="151" zoomScalePageLayoutView="151" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D1" s="2">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1">
+        <v>100</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="D2" s="2">
+        <v>25</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1">
+        <v>100</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D3" s="2">
+        <v>25</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1">
+        <v>100</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D4" s="2">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1">
+        <v>100</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D5" s="2">
+        <v>25</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1">
+        <v>100</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="D6" s="2">
+        <v>30</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1">
+        <v>100</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D7" s="2">
+        <v>35</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1">
+        <v>100</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D8" s="2">
+        <v>40</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1">
+        <v>100</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D9" s="2">
+        <v>45</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1">
+        <v>100</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="D10" s="2">
+        <v>55</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1">
+        <v>100</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D11" s="2">
+        <v>65</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1">
+        <v>100</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D12" s="2">
+        <v>70</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="D13" s="2">
+        <v>75</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="D14" s="2">
+        <v>85</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D15" s="2">
+        <v>90</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -11176,10 +11530,15 @@
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD29"/>
+      <selection activeCell="F4" sqref="F1:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
@@ -11354,490 +11713,6 @@
         <v>3</v>
       </c>
       <c r="O4" s="1">
-        <v>7.62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B5" s="1">
-        <v>110</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="1">
-        <v>120</v>
-      </c>
-      <c r="I5" s="1">
-        <v>1</v>
-      </c>
-      <c r="J5" s="1">
-        <v>5</v>
-      </c>
-      <c r="L5" s="1">
-        <v>7</v>
-      </c>
-      <c r="M5" s="1">
-        <v>17.78</v>
-      </c>
-      <c r="N5" s="1">
-        <v>3</v>
-      </c>
-      <c r="O5" s="1">
-        <v>7.62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B6" s="1">
-        <v>110</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" s="1">
-        <v>120</v>
-      </c>
-      <c r="I6" s="1">
-        <v>1</v>
-      </c>
-      <c r="J6" s="1">
-        <v>5</v>
-      </c>
-      <c r="L6" s="1">
-        <v>8</v>
-      </c>
-      <c r="M6" s="1">
-        <v>20.32</v>
-      </c>
-      <c r="N6" s="1">
-        <v>3</v>
-      </c>
-      <c r="O6" s="1">
-        <v>7.62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B7" s="1">
-        <v>110</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" s="1">
-        <v>120</v>
-      </c>
-      <c r="I7" s="1">
-        <v>1</v>
-      </c>
-      <c r="J7" s="1">
-        <v>5</v>
-      </c>
-      <c r="L7" s="1">
-        <v>9</v>
-      </c>
-      <c r="M7" s="1">
-        <v>22.86</v>
-      </c>
-      <c r="N7" s="1">
-        <v>3</v>
-      </c>
-      <c r="O7" s="1">
-        <v>7.62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B8" s="1">
-        <v>110</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="1">
-        <v>120</v>
-      </c>
-      <c r="I8" s="1">
-        <v>1</v>
-      </c>
-      <c r="J8" s="1">
-        <v>5</v>
-      </c>
-      <c r="L8" s="1">
-        <v>10</v>
-      </c>
-      <c r="M8" s="1">
-        <v>25.4</v>
-      </c>
-      <c r="N8" s="1">
-        <v>3</v>
-      </c>
-      <c r="O8" s="1">
-        <v>7.62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B9" s="1">
-        <v>110</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" s="1">
-        <v>120</v>
-      </c>
-      <c r="I9" s="1">
-        <v>1</v>
-      </c>
-      <c r="J9" s="1">
-        <v>5</v>
-      </c>
-      <c r="L9" s="1">
-        <v>12</v>
-      </c>
-      <c r="M9" s="1">
-        <v>30.48</v>
-      </c>
-      <c r="N9" s="1">
-        <v>3</v>
-      </c>
-      <c r="O9" s="1">
-        <v>7.62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B10" s="1">
-        <v>110</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="1">
-        <v>120</v>
-      </c>
-      <c r="I10" s="1">
-        <v>1</v>
-      </c>
-      <c r="J10" s="1">
-        <v>5</v>
-      </c>
-      <c r="L10" s="1">
-        <v>14</v>
-      </c>
-      <c r="M10" s="1">
-        <v>35.56</v>
-      </c>
-      <c r="N10" s="1">
-        <v>3</v>
-      </c>
-      <c r="O10" s="1">
-        <v>7.62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B11" s="1">
-        <v>110</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="1">
-        <v>120</v>
-      </c>
-      <c r="I11" s="1">
-        <v>1</v>
-      </c>
-      <c r="J11" s="1">
-        <v>5</v>
-      </c>
-      <c r="L11" s="1">
-        <v>16</v>
-      </c>
-      <c r="M11" s="1">
-        <v>40.64</v>
-      </c>
-      <c r="N11" s="1">
-        <v>3</v>
-      </c>
-      <c r="O11" s="1">
-        <v>7.62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B12" s="1">
-        <v>110</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="1">
-        <v>120</v>
-      </c>
-      <c r="I12" s="1">
-        <v>1</v>
-      </c>
-      <c r="J12" s="1">
-        <v>5</v>
-      </c>
-      <c r="L12" s="1">
-        <v>18</v>
-      </c>
-      <c r="M12" s="1">
-        <v>45.72</v>
-      </c>
-      <c r="N12" s="1">
-        <v>3</v>
-      </c>
-      <c r="O12" s="1">
-        <v>7.62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B13" s="1">
-        <v>110</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="1">
-        <v>120</v>
-      </c>
-      <c r="I13" s="1">
-        <v>1</v>
-      </c>
-      <c r="J13" s="1">
-        <v>5</v>
-      </c>
-      <c r="L13" s="1">
-        <v>20</v>
-      </c>
-      <c r="M13" s="1">
-        <v>50.8</v>
-      </c>
-      <c r="N13" s="1">
-        <v>3</v>
-      </c>
-      <c r="O13" s="1">
-        <v>7.62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B14" s="1">
-        <v>110</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="1">
-        <v>120</v>
-      </c>
-      <c r="I14" s="1">
-        <v>1</v>
-      </c>
-      <c r="J14" s="1">
-        <v>5</v>
-      </c>
-      <c r="L14" s="1">
-        <v>22</v>
-      </c>
-      <c r="M14" s="1">
-        <v>55.88</v>
-      </c>
-      <c r="N14" s="1">
-        <v>3</v>
-      </c>
-      <c r="O14" s="1">
-        <v>7.62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B15" s="1">
-        <v>110</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" s="1">
-        <v>120</v>
-      </c>
-      <c r="I15" s="1">
-        <v>1</v>
-      </c>
-      <c r="J15" s="1">
-        <v>5</v>
-      </c>
-      <c r="L15" s="1">
-        <v>24</v>
-      </c>
-      <c r="M15" s="1">
-        <v>60.96</v>
-      </c>
-      <c r="N15" s="1">
-        <v>3</v>
-      </c>
-      <c r="O15" s="1">
         <v>7.62</v>
       </c>
     </row>
